--- a/biology/Médecine/Gabriel_François_Venel/Gabriel_François_Venel.xlsx
+++ b/biology/Médecine/Gabriel_François_Venel/Gabriel_François_Venel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabriel_Fran%C3%A7ois_Venel</t>
+          <t>Gabriel_François_Venel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel François Venel est un médecin, pharmacien et chimiste français, né le 23 août 1723 à Tourbes (Languedoc) et mort le 29 octobre 1775 à Pézenas (Languedoc).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriel_Fran%C3%A7ois_Venel</t>
+          <t>Gabriel_François_Venel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève de Rouelle l’aîné, le professeur de Antoine Lavoisier, Gabriel François Venel devient professeur de médecine à Montpellier, et il enseigne également la pharmacie et la chimie. Il est membre de la Société royale des sciences de Montpellier à partir de 1768.
 Inspecteur général des Eaux minérales, il a analysé, avec Pierre Bayen, toutes les eaux minérales de France.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriel_Fran%C3%A7ois_Venel</t>
+          <t>Gabriel_François_Venel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louis Dulieu, Gabriel-François Venel. In : Bulletin de l'Académie des Sciences et Lettres de Montpellier, nouvelle série, III, 1972, p. 123-135.
 Christine Lecornu Lehman, Gabriel François Venel : sa place dans la chimie française du XVIIIe siècle, ANRT, 2006, 702 p..
-« Éloge de Monsieur Venel, prononcé à l'Académie de Montpellier », Observations et Mémoires sur la Physique, tome X, juillet 1777, p. 3-14. [1]
+« Éloge de Monsieur Venel, prononcé à l'Académie de Montpellier », Observations et Mémoires sur la Physique, tome X, juillet 1777, p. 3-14. 
 Antoine Jacques Louis Jourdan, Dictionnaire des sciences médicales : biographie médicale, vol. 7. Paris, C.L.F. Panckoucke, 1825. p. 407-411.
 Jacques Proust, L'encyclopédisme dans le Bas-Languedoc au XVIIIe siècle, Montpellier, 1968</t>
         </is>
